--- a/Phase 5 - Einfuerung/ID2558_TabinasKenan_Abschluss.xlsx
+++ b/Phase 5 - Einfuerung/ID2558_TabinasKenan_Abschluss.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/Documents/repos/docs/Phase 5 - Einfuerung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E454AC10-7853-074B-9B46-E9E60821E750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD522A5-400F-2B4E-8A1D-3B3C49520FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{6811828A-B73C-304C-B75C-A648C40E3DE0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{6811828A-B73C-304C-B75C-A648C40E3DE0}"/>
   </bookViews>
   <sheets>
     <sheet name="AbnahmeProtokoll" sheetId="9" r:id="rId1"/>
@@ -796,19 +796,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BCC38717-75D1-B54C-91D0-71ED2FB83FF0}" name="Table1" displayName="Table1" ref="A1:N37" totalsRowShown="0" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BCC38717-75D1-B54C-91D0-71ED2FB83FF0}" name="Table1" displayName="Table1" ref="A1:N37" totalsRowShown="0" dataDxfId="14">
   <autoFilter ref="A1:N37" xr:uid="{BCC38717-75D1-B54C-91D0-71ED2FB83FF0}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{D219DCDC-426B-5A42-B105-F85E069CDFB1}" name="AID" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{48F15BF0-DE67-A340-8A58-E7B5C4DAEA42}" name="FID" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{255DB050-EBC4-E240-B4B6-EDD8402B8DE6}" name="Abnahmekriterium" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{5189EC89-E104-0545-8A93-F5690A605DEA}" name="TID" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{0F700025-1891-C841-978D-2C72766FAED7}" name="Kann / Muss" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{2F670392-BE4D-7749-BDF5-C28F7C8CAECF}" name="Bezeichnung" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{B5234F71-D05E-B240-9396-25072CA8EF14}" name="Beschreibung" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{77E60AE6-9A51-0243-BE61-29DCD23C89B5}" name="Vorraussetzung" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{FB791367-CFC2-664D-A306-AEB60983B1BD}" name="Testschritte" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{7354396D-5981-9540-BC62-E70CB38525AB}" name="Erwartetes Ergebnis" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{D219DCDC-426B-5A42-B105-F85E069CDFB1}" name="AID" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{48F15BF0-DE67-A340-8A58-E7B5C4DAEA42}" name="FID" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{255DB050-EBC4-E240-B4B6-EDD8402B8DE6}" name="Abnahmekriterium" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{5189EC89-E104-0545-8A93-F5690A605DEA}" name="TID" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{0F700025-1891-C841-978D-2C72766FAED7}" name="Kann / Muss" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{2F670392-BE4D-7749-BDF5-C28F7C8CAECF}" name="Bezeichnung" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{B5234F71-D05E-B240-9396-25072CA8EF14}" name="Beschreibung" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{77E60AE6-9A51-0243-BE61-29DCD23C89B5}" name="Vorraussetzung" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{FB791367-CFC2-664D-A306-AEB60983B1BD}" name="Testschritte" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{7354396D-5981-9540-BC62-E70CB38525AB}" name="Erwartetes Ergebnis" dataDxfId="4"/>
     <tableColumn id="11" xr3:uid="{56884BFA-4019-6E4A-8659-7A46E37D4882}" name="Gibt es Test" dataDxfId="3"/>
     <tableColumn id="12" xr3:uid="{10064608-2550-6A40-B391-890BF29F1F58}" name="Anders" dataDxfId="2"/>
     <tableColumn id="13" xr3:uid="{4092CEBB-CF7D-B544-8CA1-2CFDEC3F24A0}" name="Nicht" dataDxfId="1"/>
@@ -1138,7 +1138,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Phase 5 - Einfuerung/ID2558_TabinasKenan_Abschluss.xlsx
+++ b/Phase 5 - Einfuerung/ID2558_TabinasKenan_Abschluss.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/Documents/repos/docs/Phase 5 - Einfuerung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD522A5-400F-2B4E-8A1D-3B3C49520FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615B032C-F719-D54E-82BF-F875AF88B328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{6811828A-B73C-304C-B75C-A648C40E3DE0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="1" xr2:uid="{6811828A-B73C-304C-B75C-A648C40E3DE0}"/>
   </bookViews>
   <sheets>
     <sheet name="AbnahmeProtokoll" sheetId="9" r:id="rId1"/>
+    <sheet name="Abkürzungen" sheetId="12" r:id="rId2"/>
+    <sheet name="Risiko Analyse" sheetId="10" r:id="rId3"/>
+    <sheet name="Risko Matrix" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="284">
   <si>
     <t>AID</t>
   </si>
@@ -501,13 +504,402 @@
   </si>
   <si>
     <t>Ist Kann</t>
+  </si>
+  <si>
+    <t>Risiko Analyse Projekt Delegator
+Phase Analyse</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>Risiko-Kategorie
+Risiko-Beschreibung</t>
+  </si>
+  <si>
+    <t>Ursachen</t>
+  </si>
+  <si>
+    <t>Wahrscheinlichkeit</t>
+  </si>
+  <si>
+    <t>Auswirkung</t>
+  </si>
+  <si>
+    <t>Tragweite</t>
+  </si>
+  <si>
+    <t>Risiko</t>
+  </si>
+  <si>
+    <t>Massnahmen</t>
+  </si>
+  <si>
+    <t>Backend System Ausfall</t>
+  </si>
+  <si>
+    <t>Überlastung der Systeme. Migrationen ohne Backup. Zu wenig Update überprüft.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Backend ist nicht mehr ereichbar. Online funktionen sind nicht mehr verfügbar. Reputationschaden und genervte Kunden.</t>
+  </si>
+  <si>
+    <t>Fest Release Regeln und abläufe. Automatisierte Tests.</t>
+  </si>
+  <si>
+    <t>Cyber Angriffe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unzureichende Schulung der Mitarbeiter. </t>
+  </si>
+  <si>
+    <t>Massiver Reputationsschaden und Vertraunens verlust</t>
+  </si>
+  <si>
+    <t>Security hoch gewichten. Regelmässige Penetrationstest durchführen. Von Externen helfen lassen.</t>
+  </si>
+  <si>
+    <t>Fehler in der Mobileapp</t>
+  </si>
+  <si>
+    <t>Fehlerhafte Releases durch zu wenig Testen.</t>
+  </si>
+  <si>
+    <t>Kunden können ihr geschäft nicht weiter führen. Ist gerade bei der Zielgruppe sehr schädlich.</t>
+  </si>
+  <si>
+    <t>Ausfall von Plattform Services</t>
+  </si>
+  <si>
+    <t>Der Provider hat ein Problem</t>
+  </si>
+  <si>
+    <t>Konkurenzverhalten</t>
+  </si>
+  <si>
+    <t>Meine Applikation hat sich zu wenig weiter entwickelt. Ein big player oder ein brachen bekannter player fährt neue geschütze auf.</t>
+  </si>
+  <si>
+    <t>Neu kunden bleiben aus. Planung geht nicht mir auf. Kunden wechseln zur Konkurenz.</t>
+  </si>
+  <si>
+    <t>Investieren in Vermarktung und continuierliche überwachung der Konkurenz</t>
+  </si>
+  <si>
+    <t>Datenschutzverletztung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policies ändern oder andere Länder haben Regeln von denen ich nichts weiss. </t>
+  </si>
+  <si>
+    <t>Applikation könnte gesperrt werden.</t>
+  </si>
+  <si>
+    <t>Bei neu Kunden immer das Land überprüfen und die Datenschutzregeln analysieren und dementsprechend Massnahmen treffen.</t>
+  </si>
+  <si>
+    <t>Unklare Zahlungsbereitschaft</t>
+  </si>
+  <si>
+    <t>Die Zielgruppe ist möglicherweise nicht bereit / daran interessiert Geld auszugeben.</t>
+  </si>
+  <si>
+    <t>Wirtschaftskrise</t>
+  </si>
+  <si>
+    <t>Ein Krieg oder eine Wirtschaftskrise aus Politischen / Religösen gründen, passieren bereits jetzt. Es muss nur etwas näher kommen und wir werden involviert.</t>
+  </si>
+  <si>
+    <t>Tief</t>
+  </si>
+  <si>
+    <t>Mittel</t>
+  </si>
+  <si>
+    <t>Hoch</t>
+  </si>
+  <si>
+    <t>Eintritts Wahrscheinlichkeit</t>
+  </si>
+  <si>
+    <t>Reduce</t>
+  </si>
+  <si>
+    <t>Reduce, Monitor &amp; Transfer</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bei der Wahl des Provider nicht den günstigen nehmen und eine passende SLA aushandeln. </t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Es gibt trotz guter App keine käufe. Projekt rentiert nicht und ich mache einwenig Minus.</t>
+  </si>
+  <si>
+    <t>Beobachten und Reagieren</t>
+  </si>
+  <si>
+    <t>Zahlungsbereitschaft sinkt. Keine Neukunden und / oder bestehende Kunden setzen andere Prioritäten.</t>
+  </si>
+  <si>
+    <t>ARTAM¹</t>
+  </si>
+  <si>
+    <t>(Marksatz für die 5 Risk Management Methoden: Avoid, Reduce, Transfer, Accept, Monitor)¹</t>
+  </si>
+  <si>
+    <t>Begriff</t>
+  </si>
+  <si>
+    <t>Erklärung</t>
+  </si>
+  <si>
+    <t>AGB</t>
+  </si>
+  <si>
+    <t>Allgemeine Geschäftsbedingungen - rechtliche Regeln zwischen Anbieter und Nutzer</t>
+  </si>
+  <si>
+    <t>DSGVO</t>
+  </si>
+  <si>
+    <t>Datenschutz-Grundverordnung - EU-weites Gesetz zum Schutz personenbezogener Daten</t>
+  </si>
+  <si>
+    <t>nDSG</t>
+  </si>
+  <si>
+    <t>Neues Datenschutzgesetz der Schweiz - schweizer Pendant zur DSGVO</t>
+  </si>
+  <si>
+    <t>Salvatorische Klausel</t>
+  </si>
+  <si>
+    <t>Bestimmung, die sicherstellt, dass bei Unwirksamkeit einzelner AGB-Punkte der Rest gültig bleibt</t>
+  </si>
+  <si>
+    <t>Höhere Gewalt</t>
+  </si>
+  <si>
+    <t>Außergewöhnliche, unvorhersehbare Ereignisse (Naturkatastrophen, Pandemie, etc.)</t>
+  </si>
+  <si>
+    <t>Außerordentliche Kündigung</t>
+  </si>
+  <si>
+    <t>Sofortige Kündigung bei schwerwiegenden Vertragsverletzungen</t>
+  </si>
+  <si>
+    <t>Verzugszinsen</t>
+  </si>
+  <si>
+    <t>Zusätzliche Kosten bei verspäteter Zahlung (hier: 5% p.a.)</t>
+  </si>
+  <si>
+    <t>Basiszinssatz</t>
+  </si>
+  <si>
+    <t>Referenzzinssatz der Europäischen Zentralbank</t>
+  </si>
+  <si>
+    <t>Cross-Platform</t>
+  </si>
+  <si>
+    <t>Software, die auf verschiedenen Betriebssystemen läuft (iOS, Android, Web)</t>
+  </si>
+  <si>
+    <t>Reverse Engineering</t>
+  </si>
+  <si>
+    <t>Rückentwicklung von Software zur Analyse des Codes</t>
+  </si>
+  <si>
+    <t>Scraping/Crawling</t>
+  </si>
+  <si>
+    <t>Automatisiertes Auslesen von Daten durch Programme</t>
+  </si>
+  <si>
+    <t>Synchronisation</t>
+  </si>
+  <si>
+    <t>Abgleich von Daten zwischen verschiedenen Systemen</t>
+  </si>
+  <si>
+    <t>Vertragspartner</t>
+  </si>
+  <si>
+    <t>Die Personen/Unternehmen, die den Vertrag abschließen</t>
+  </si>
+  <si>
+    <t>Nacherfüllung</t>
+  </si>
+  <si>
+    <t>Recht auf Reparatur/Ersatz bei Mängeln</t>
+  </si>
+  <si>
+    <t>Gerichtsstand</t>
+  </si>
+  <si>
+    <t>Ort, an dem bei Rechtsstreitigkeiten geklagt werden muss</t>
+  </si>
+  <si>
+    <t>Setlisten-Management</t>
+  </si>
+  <si>
+    <t>Funktion zur Erstellung und Verwaltung von Songlisten für Auftritte</t>
+  </si>
+  <si>
+    <t>Ressourcenplanung</t>
+  </si>
+  <si>
+    <t>Verwaltung von Equipment und Proberäumen</t>
+  </si>
+  <si>
+    <t>Rollenzuweisungen</t>
+  </si>
+  <si>
+    <t>Festlegung unterschiedlicher Berechtigungen für Bandmitglieder</t>
+  </si>
+  <si>
+    <t>Betroffenenrechte</t>
+  </si>
+  <si>
+    <t>Ihre Rechte bezüglich Ihrer gespeicherten Daten</t>
+  </si>
+  <si>
+    <t>Einwilligung</t>
+  </si>
+  <si>
+    <t>Ihre ausdrückliche Zustimmung zur Datenverarbeitung</t>
+  </si>
+  <si>
+    <t>Vertragserfüllung</t>
+  </si>
+  <si>
+    <t>Rechtsgrund für notwendige Datenverarbeitung zur Service-Bereitstellung</t>
+  </si>
+  <si>
+    <t>Minderjährige</t>
+  </si>
+  <si>
+    <t>Personen unter 18 Jahren</t>
+  </si>
+  <si>
+    <t>Textform</t>
+  </si>
+  <si>
+    <t>Schriftliche Erklärung ohne Unterschrift (E-Mail reicht)</t>
+  </si>
+  <si>
+    <t>Mittelbare Schäden</t>
+  </si>
+  <si>
+    <t>Indirekte Folgeschäden</t>
+  </si>
+  <si>
+    <t>Wesentliche Vertragspflichten</t>
+  </si>
+  <si>
+    <t>Kernleistungen, die den Vertragszweck prägen</t>
+  </si>
+  <si>
+    <t>CLOUD Act</t>
+  </si>
+  <si>
+    <t>US-amerikanisches Gesetz, das Behörden den Zugriff auf Daten von US-Unternehmen ermöglicht, auch wenn diese außerhalb der USA gespeichert sind</t>
+  </si>
+  <si>
+    <t>Schrems II</t>
+  </si>
+  <si>
+    <t>EuGH-Urteil von 2020, das den Privacy Shield für unwirksam erklärte</t>
+  </si>
+  <si>
+    <t>Privacy Shield</t>
+  </si>
+  <si>
+    <t>Ehemaliges Datenschutzabkommen zwischen EU und USA (2020 für unwirksam erklärt)</t>
+  </si>
+  <si>
+    <t>Standardvertragsklauseln (SCC)</t>
+  </si>
+  <si>
+    <t>Vertraglich vereinbarte Datenschutzstandards für internationale Datenübertragungen</t>
+  </si>
+  <si>
+    <t>Rechte von Personen bezüglich ihrer personenbezogenen Daten (Auskunft, Berichtigung, Löschung etc.)</t>
+  </si>
+  <si>
+    <t>TLS 1.3</t>
+  </si>
+  <si>
+    <t>Transport Layer Security, aktueller Standard für verschlüsselte Datenübertragung</t>
+  </si>
+  <si>
+    <t>AES-256</t>
+  </si>
+  <si>
+    <t>Advanced Encryption Standard mit 256-Bit Schlüssellänge für Datenverschlüsselung</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>Zufällige Daten, die beim Passwort-Hashing zur Erhöhung der Sicherheit verwendet werden</t>
+  </si>
+  <si>
+    <t>Multi-Faktor-Authentifizierung (MFA)</t>
+  </si>
+  <si>
+    <t>Sicherheitsverfahren mit mehreren Authentifizierungsfaktoren</t>
+  </si>
+  <si>
+    <t>Incident Response</t>
+  </si>
+  <si>
+    <t>Strukturierter Prozess zur Behandlung von Sicherheitsvorfällen</t>
+  </si>
+  <si>
+    <t>Penetration Testing</t>
+  </si>
+  <si>
+    <t>Sicherheitstest durch simulierte Angriffe auf IT-Systeme</t>
+  </si>
+  <si>
+    <t>CaaS Provider</t>
+  </si>
+  <si>
+    <t>Container-as-a-Service Anbieter für Cloud-Infrastruktur</t>
+  </si>
+  <si>
+    <t>Audit-Logging</t>
+  </si>
+  <si>
+    <t>Protokollierung sicherheitsrelevanter Ereignisse für Compliance-Zwecke</t>
+  </si>
+  <si>
+    <t>Cookie-Consent</t>
+  </si>
+  <si>
+    <t>Einverständniserklärung für die Verwendung von Cookies</t>
+  </si>
+  <si>
+    <t>Erfolgreich</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -527,8 +919,45 @@
       <color theme="1"/>
       <name val="Karla Regular"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Karla Regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Karla Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <name val="Karla Regular"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Karla Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Karla Regular"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Karla Regular"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -547,8 +976,50 @@
         <bgColor theme="6" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -571,22 +1042,292 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyFont="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyFont="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Style 1" xfId="1" xr:uid="{C445076B-1541-A04C-AE06-D9186E4B8556}"/>
     <cellStyle name="Style 2" xfId="2" xr:uid="{FE7A7149-67C0-7A44-8205-85308F72C1CB}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Karla Regular"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -795,24 +1536,767 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE5C2A96-6BC2-934E-B4CE-23CBBC123834}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6007100" y="1231900"/>
+          <a:ext cx="88900" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="8"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Oval 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8F2559F-1D2C-A64E-A16C-BFE77D44147B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6477000" y="1193800"/>
+          <a:ext cx="165100" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="8"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59290749-1AEE-BF44-BAE1-005AE26503CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6908800" y="1130300"/>
+          <a:ext cx="317500" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="8"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Oval 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57BD9867-0F24-864E-8DA9-A4C48C65AF9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9639300" y="1231900"/>
+          <a:ext cx="88900" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="8"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Oval 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF62A62-B553-6B4D-944E-A5125FC08F79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10121900" y="1206500"/>
+          <a:ext cx="165100" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="8"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Oval 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116C6D10-A78D-944D-A9C5-6A793E80D1F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10553700" y="1130300"/>
+          <a:ext cx="317500" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="8"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>68819</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>100100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>425418</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>425419</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343B595A-C439-E854-E1DD-A005F049E825}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1720445" y="1651627"/>
+          <a:ext cx="356599" cy="325319"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>233733</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>246244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590332</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>571563</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Oval 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DCA2FB0-E913-E841-9431-20104C365131}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2711171" y="1022008"/>
+          <a:ext cx="356599" cy="325319"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>98349</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>454948</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>429923</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Oval 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C44589F6-AB9D-E04F-9725-79EF8BE0BE62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1749975" y="880368"/>
+          <a:ext cx="356599" cy="325319"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>210960</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>229728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>567559</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>555047</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Oval 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6F27A2-AA29-A344-B36B-14EC5F79B6F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1036773" y="2557019"/>
+          <a:ext cx="356599" cy="325319"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>382128</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>375871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>738727</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>701190</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Oval 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CE287F-AC48-854A-88EE-CFED071577CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2033754" y="1151635"/>
+          <a:ext cx="356599" cy="325319"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>396893</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>384380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>753492</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>709699</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Oval 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{997D2BDC-7F2B-1F41-9209-C00258EEB428}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2048519" y="1935907"/>
+          <a:ext cx="356599" cy="325319"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BCC38717-75D1-B54C-91D0-71ED2FB83FF0}" name="Table1" displayName="Table1" ref="A1:N37" totalsRowShown="0" dataDxfId="14">
-  <autoFilter ref="A1:N37" xr:uid="{BCC38717-75D1-B54C-91D0-71ED2FB83FF0}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{D219DCDC-426B-5A42-B105-F85E069CDFB1}" name="AID" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{48F15BF0-DE67-A340-8A58-E7B5C4DAEA42}" name="FID" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{255DB050-EBC4-E240-B4B6-EDD8402B8DE6}" name="Abnahmekriterium" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{5189EC89-E104-0545-8A93-F5690A605DEA}" name="TID" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{0F700025-1891-C841-978D-2C72766FAED7}" name="Kann / Muss" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{2F670392-BE4D-7749-BDF5-C28F7C8CAECF}" name="Bezeichnung" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{B5234F71-D05E-B240-9396-25072CA8EF14}" name="Beschreibung" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{77E60AE6-9A51-0243-BE61-29DCD23C89B5}" name="Vorraussetzung" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{FB791367-CFC2-664D-A306-AEB60983B1BD}" name="Testschritte" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{7354396D-5981-9540-BC62-E70CB38525AB}" name="Erwartetes Ergebnis" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{56884BFA-4019-6E4A-8659-7A46E37D4882}" name="Gibt es Test" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{10064608-2550-6A40-B391-890BF29F1F58}" name="Anders" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{4092CEBB-CF7D-B544-8CA1-2CFDEC3F24A0}" name="Nicht" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{ECADE266-5CDB-E64C-AAB4-75D1FEF87FE8}" name="Ist Kann" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BCC38717-75D1-B54C-91D0-71ED2FB83FF0}" name="Table1" displayName="Table1" ref="A1:O37" totalsRowShown="0" dataDxfId="15">
+  <autoFilter ref="A1:O37" xr:uid="{BCC38717-75D1-B54C-91D0-71ED2FB83FF0}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{D219DCDC-426B-5A42-B105-F85E069CDFB1}" name="AID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{48F15BF0-DE67-A340-8A58-E7B5C4DAEA42}" name="FID" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{255DB050-EBC4-E240-B4B6-EDD8402B8DE6}" name="Abnahmekriterium" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{5189EC89-E104-0545-8A93-F5690A605DEA}" name="TID" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{0F700025-1891-C841-978D-2C72766FAED7}" name="Kann / Muss" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{2F670392-BE4D-7749-BDF5-C28F7C8CAECF}" name="Bezeichnung" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{B5234F71-D05E-B240-9396-25072CA8EF14}" name="Beschreibung" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{77E60AE6-9A51-0243-BE61-29DCD23C89B5}" name="Vorraussetzung" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{FB791367-CFC2-664D-A306-AEB60983B1BD}" name="Testschritte" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{7354396D-5981-9540-BC62-E70CB38525AB}" name="Erwartetes Ergebnis" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{56884BFA-4019-6E4A-8659-7A46E37D4882}" name="Gibt es Test" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{10064608-2550-6A40-B391-890BF29F1F58}" name="Anders" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{4092CEBB-CF7D-B544-8CA1-2CFDEC3F24A0}" name="Nicht" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{ECADE266-5CDB-E64C-AAB4-75D1FEF87FE8}" name="Ist Kann" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{EBD101BC-CBE1-FB45-8D9E-18AED033D21D}" name="Erfolgreich" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1135,10 +2619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15104681-3F1C-7D42-BE25-7DE70F3FB0FB}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1153,7 +2637,7 @@
     <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1196,8 +2680,11 @@
       <c r="N1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1240,8 +2727,11 @@
       <c r="N2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1276,8 +2766,11 @@
       <c r="N3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1312,8 +2805,11 @@
       <c r="N4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1348,8 +2844,11 @@
       <c r="N5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +2891,11 @@
       <c r="N6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1436,8 +2938,11 @@
       <c r="N7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1480,8 +2985,11 @@
       <c r="N8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1524,8 +3032,11 @@
       <c r="N9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1568,8 +3079,11 @@
       <c r="N10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1612,8 +3126,11 @@
       <c r="N11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1656,8 +3173,11 @@
       <c r="N12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1700,8 +3220,11 @@
       <c r="N13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1736,8 +3259,11 @@
       <c r="N14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1772,8 +3298,11 @@
       <c r="N15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -1808,8 +3337,11 @@
       <c r="N16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -1844,8 +3376,11 @@
       <c r="N17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -1880,8 +3415,11 @@
       <c r="N18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -1916,8 +3454,11 @@
       <c r="N19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -1960,8 +3501,11 @@
       <c r="N20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
@@ -2004,8 +3548,11 @@
       <c r="N21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
@@ -2040,8 +3587,11 @@
       <c r="N22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -2076,8 +3626,11 @@
       <c r="N23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -2112,8 +3665,11 @@
       <c r="N24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
         <v>59</v>
       </c>
@@ -2148,8 +3704,11 @@
       <c r="N25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
         <v>61</v>
       </c>
@@ -2184,8 +3743,11 @@
       <c r="N26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
         <v>64</v>
       </c>
@@ -2220,8 +3782,11 @@
       <c r="N27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
@@ -2256,8 +3821,11 @@
       <c r="N28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
         <v>69</v>
       </c>
@@ -2292,8 +3860,11 @@
       <c r="N29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
         <v>72</v>
       </c>
@@ -2328,8 +3899,11 @@
       <c r="N30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
         <v>75</v>
       </c>
@@ -2364,8 +3938,11 @@
       <c r="N31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
         <v>77</v>
       </c>
@@ -2400,8 +3977,11 @@
       <c r="N32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
@@ -2436,8 +4016,11 @@
       <c r="N33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
         <v>82</v>
       </c>
@@ -2472,8 +4055,11 @@
       <c r="N34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
         <v>85</v>
       </c>
@@ -2508,8 +4094,11 @@
       <c r="N35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
         <v>88</v>
       </c>
@@ -2544,8 +4133,11 @@
       <c r="N36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
         <v>91</v>
       </c>
@@ -2579,6 +4171,9 @@
       </c>
       <c r="N37" s="1">
         <v>1</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2587,4 +4182,1100 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799A116D-B18F-5F4C-8DAD-C90ABFB1193F}">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="152.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="43" t="s">
+        <v>269</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE183E3-120C-7D4B-8ABB-EE2EB5EDC8AE}">
+  <dimension ref="A1:T21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="6" width="6.33203125" customWidth="1"/>
+    <col min="7" max="7" width="34.33203125" customWidth="1"/>
+    <col min="8" max="10" width="6.33203125" customWidth="1"/>
+    <col min="12" max="12" width="34.33203125" customWidth="1"/>
+    <col min="13" max="13" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="32" thickBot="1">
+      <c r="A1" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+    </row>
+    <row r="2" spans="1:20" ht="17" customHeight="1">
+      <c r="A2" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+    </row>
+    <row r="3" spans="1:20" ht="33" customHeight="1" thickBot="1">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+    </row>
+    <row r="4" spans="1:20" ht="64">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="9">
+        <v>4</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+    </row>
+    <row r="5" spans="1:20" ht="64">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" s="8">
+        <v>9</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+    </row>
+    <row r="6" spans="1:20" ht="48">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K6" s="8">
+        <v>6</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="M6" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+    </row>
+    <row r="7" spans="1:20" ht="64">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="8">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+    </row>
+    <row r="8" spans="1:20" ht="64">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K8" s="9">
+        <v>6</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+    </row>
+    <row r="9" spans="1:20" ht="80">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="8">
+        <v>4</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+    </row>
+    <row r="10" spans="1:20" ht="48">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K10" s="8">
+        <v>3</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="M10" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+    </row>
+    <row r="11" spans="1:20" ht="96">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K11" s="8">
+        <v>3</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="M11" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BC99DB-4FE5-0B46-A309-E274EBBBBF54}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView zoomScale="203" zoomScaleNormal="203" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="5" max="5" width="3.6640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="61" customHeight="1">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="24"/>
+    </row>
+    <row r="2" spans="1:7" ht="61" customHeight="1">
+      <c r="A2" s="16"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="1:7" ht="61" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" ht="61" customHeight="1">
+      <c r="A4" s="16"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" ht="22" customHeight="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" ht="25" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Phase 5 - Einfuerung/ID2558_TabinasKenan_Abschluss.xlsx
+++ b/Phase 5 - Einfuerung/ID2558_TabinasKenan_Abschluss.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/Documents/repos/docs/Phase 5 - Einfuerung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615B032C-F719-D54E-82BF-F875AF88B328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17BA51D-10CF-0846-B630-C0087FF0F34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="1" xr2:uid="{6811828A-B73C-304C-B75C-A648C40E3DE0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="4" xr2:uid="{6811828A-B73C-304C-B75C-A648C40E3DE0}"/>
   </bookViews>
   <sheets>
     <sheet name="AbnahmeProtokoll" sheetId="9" r:id="rId1"/>
     <sheet name="Abkürzungen" sheetId="12" r:id="rId2"/>
     <sheet name="Risiko Analyse" sheetId="10" r:id="rId3"/>
     <sheet name="Risko Matrix" sheetId="11" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="289">
   <si>
     <t>AID</t>
   </si>
@@ -893,13 +894,28 @@
   </si>
   <si>
     <t>Erfolgreich</t>
+  </si>
+  <si>
+    <t>Diplomarbeit</t>
+  </si>
+  <si>
+    <t>Aufwand</t>
+  </si>
+  <si>
+    <t>Marketingbudget</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -955,6 +971,17 @@
       <sz val="13"/>
       <color theme="1"/>
       <name val="Karla Regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Karla"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Karla"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1019,7 +1046,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1197,13 +1224,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyFont="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyFont="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1308,6 +1387,24 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4188,7 +4285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799A116D-B18F-5F4C-8DAD-C90ABFB1193F}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -4526,7 +4623,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5164,7 +5261,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="203" zoomScaleNormal="203" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5278,4 +5375,80 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0A4AF8-CB04-AB49-835A-A5DA1A2E6DD1}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="33" thickBot="1">
+      <c r="A1" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="45">
+        <v>24000</v>
+      </c>
+      <c r="C1" s="45">
+        <f>100/$B$5*B1</f>
+        <v>37.008481110254429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" thickBot="1">
+      <c r="A2" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="47">
+        <v>33280</v>
+      </c>
+      <c r="C2" s="45">
+        <f t="shared" ref="C2:C4" si="0">100/$B$5*B2</f>
+        <v>51.31842713955281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="33" thickBot="1">
+      <c r="A3" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" s="47">
+        <v>6000</v>
+      </c>
+      <c r="C3" s="45">
+        <f t="shared" si="0"/>
+        <v>9.2521202775636073</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" thickBot="1">
+      <c r="A4" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="47">
+        <v>1570</v>
+      </c>
+      <c r="C4" s="45">
+        <f t="shared" si="0"/>
+        <v>2.420971472629144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" thickBot="1">
+      <c r="A5" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" s="49">
+        <v>64850</v>
+      </c>
+      <c r="C5" s="49">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>